--- a/freePackage40/freePackage40.xlsx
+++ b/freePackage40/freePackage40.xlsx
@@ -2184,123 +2184,124 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="54">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="18" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="19" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="20" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="21" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="22" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="23" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="24" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="25" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="26" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="27" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="28" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="29" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="30" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="31" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="32" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf borderId="33" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
@@ -2310,9 +2311,6 @@
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
     <xf borderId="35" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
@@ -2342,9 +2340,6 @@
     </xf>
     <xf borderId="40" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="30" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="31" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
@@ -4684,7 +4679,7 @@
       <c r="I34" s="38"/>
       <c r="J34" s="38"/>
       <c r="K34" s="38"/>
-      <c r="L34" s="39"/>
+      <c r="L34" s="38"/>
       <c r="M34" s="36"/>
       <c r="N34" s="36"/>
       <c r="O34" s="36"/>
@@ -4701,7 +4696,7 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="39" t="s">
         <v>3</v>
       </c>
       <c r="C35" s="38"/>
@@ -4713,11 +4708,11 @@
       <c r="I35" s="38"/>
       <c r="J35" s="38"/>
       <c r="K35" s="38"/>
-      <c r="L35" s="39"/>
+      <c r="L35" s="38"/>
       <c r="M35" s="36"/>
       <c r="N35" s="36"/>
       <c r="O35" s="36"/>
-      <c r="P35" s="40" t="s">
+      <c r="P35" s="39" t="s">
         <v>3</v>
       </c>
       <c r="Q35" s="38"/>
@@ -4730,10 +4725,10 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="41" t="s">
+      <c r="B36" s="40" t="s">
         <v>515</v>
       </c>
-      <c r="C36" s="42" t="s">
+      <c r="C36" s="41" t="s">
         <v>4</v>
       </c>
       <c r="D36" s="38"/>
@@ -4744,14 +4739,14 @@
       <c r="I36" s="38"/>
       <c r="J36" s="38"/>
       <c r="K36" s="38"/>
-      <c r="L36" s="39"/>
+      <c r="L36" s="38"/>
       <c r="M36" s="36"/>
       <c r="N36" s="36"/>
       <c r="O36" s="36"/>
-      <c r="P36" s="41" t="s">
+      <c r="P36" s="40" t="s">
         <v>447</v>
       </c>
-      <c r="Q36" s="42" t="s">
+      <c r="Q36" s="41" t="s">
         <v>4</v>
       </c>
       <c r="R36" s="38"/>
@@ -4763,13 +4758,13 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
-      <c r="B37" s="43" t="s">
+      <c r="B37" s="13" t="s">
         <v>516</v>
       </c>
-      <c r="C37" s="44" t="s">
+      <c r="C37" s="42" t="s">
         <v>517</v>
       </c>
-      <c r="D37" s="42" t="s">
+      <c r="D37" s="41" t="s">
         <v>5</v>
       </c>
       <c r="E37" s="38"/>
@@ -4778,18 +4773,18 @@
       <c r="H37" s="36"/>
       <c r="I37" s="38"/>
       <c r="J37" s="38"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="39"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
       <c r="M37" s="36"/>
       <c r="N37" s="36"/>
       <c r="O37" s="36"/>
-      <c r="P37" s="43" t="s">
+      <c r="P37" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="Q37" s="44" t="s">
+      <c r="Q37" s="42" t="s">
         <v>518</v>
       </c>
-      <c r="R37" s="42" t="s">
+      <c r="R37" s="41" t="s">
         <v>5</v>
       </c>
       <c r="S37" s="38"/>
@@ -4800,38 +4795,38 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="43" t="s">
+      <c r="B38" s="13" t="s">
         <v>519</v>
       </c>
-      <c r="C38" s="45" t="s">
+      <c r="C38" s="43" t="s">
         <v>520</v>
       </c>
-      <c r="D38" s="44" t="s">
+      <c r="D38" s="42" t="s">
         <v>521</v>
       </c>
-      <c r="E38" s="42" t="s">
+      <c r="E38" s="41" t="s">
         <v>6</v>
       </c>
       <c r="F38" s="36"/>
       <c r="G38" s="36"/>
       <c r="H38" s="36"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="39"/>
-      <c r="K38" s="39"/>
-      <c r="L38" s="39"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="38"/>
       <c r="M38" s="36"/>
       <c r="N38" s="36"/>
       <c r="O38" s="36"/>
-      <c r="P38" s="43" t="s">
+      <c r="P38" s="13" t="s">
         <v>522</v>
       </c>
-      <c r="Q38" s="45" t="s">
+      <c r="Q38" s="43" t="s">
         <v>523</v>
       </c>
-      <c r="R38" s="44" t="s">
+      <c r="R38" s="42" t="s">
         <v>524</v>
       </c>
-      <c r="S38" s="42" t="s">
+      <c r="S38" s="41" t="s">
         <v>6</v>
       </c>
       <c r="T38" s="36"/>
@@ -4841,225 +4836,225 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1"/>
-      <c r="B39" s="43" t="s">
+      <c r="B39" s="13" t="s">
         <v>525</v>
       </c>
-      <c r="C39" s="45" t="s">
+      <c r="C39" s="43" t="s">
         <v>526</v>
       </c>
-      <c r="D39" s="46" t="s">
+      <c r="D39" s="44" t="s">
         <v>527</v>
       </c>
-      <c r="E39" s="44" t="s">
+      <c r="E39" s="42" t="s">
         <v>528</v>
       </c>
-      <c r="F39" s="42" t="s">
+      <c r="F39" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="47"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="45"/>
       <c r="J39" s="36"/>
       <c r="K39" s="36"/>
       <c r="L39" s="36"/>
       <c r="M39" s="36"/>
       <c r="N39" s="36"/>
       <c r="O39" s="36"/>
-      <c r="P39" s="43" t="s">
+      <c r="P39" s="13" t="s">
         <v>529</v>
       </c>
-      <c r="Q39" s="45" t="s">
+      <c r="Q39" s="43" t="s">
         <v>530</v>
       </c>
-      <c r="R39" s="46" t="s">
+      <c r="R39" s="44" t="s">
         <v>531</v>
       </c>
-      <c r="S39" s="44" t="s">
+      <c r="S39" s="42" t="s">
         <v>532</v>
       </c>
-      <c r="T39" s="42" t="s">
+      <c r="T39" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="U39" s="39"/>
-      <c r="V39" s="39"/>
+      <c r="U39" s="38"/>
+      <c r="V39" s="38"/>
       <c r="W39" s="1"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="43" t="s">
+      <c r="B40" s="13" t="s">
         <v>533</v>
       </c>
-      <c r="C40" s="45" t="s">
+      <c r="C40" s="43" t="s">
         <v>534</v>
       </c>
-      <c r="D40" s="46" t="s">
+      <c r="D40" s="44" t="s">
         <v>535</v>
       </c>
-      <c r="E40" s="48" t="s">
+      <c r="E40" s="46" t="s">
         <v>536</v>
       </c>
-      <c r="F40" s="48" t="s">
+      <c r="F40" s="46" t="s">
         <v>537</v>
       </c>
-      <c r="G40" s="42" t="s">
+      <c r="G40" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="H40" s="39"/>
-      <c r="I40" s="47"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="45"/>
       <c r="J40" s="36"/>
       <c r="K40" s="36"/>
       <c r="L40" s="36"/>
       <c r="M40" s="36"/>
       <c r="N40" s="36"/>
       <c r="O40" s="36"/>
-      <c r="P40" s="43" t="s">
+      <c r="P40" s="13" t="s">
         <v>538</v>
       </c>
-      <c r="Q40" s="45" t="s">
+      <c r="Q40" s="43" t="s">
         <v>539</v>
       </c>
-      <c r="R40" s="46" t="s">
+      <c r="R40" s="44" t="s">
         <v>540</v>
       </c>
-      <c r="S40" s="48" t="s">
+      <c r="S40" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="T40" s="48" t="s">
+      <c r="T40" s="46" t="s">
         <v>541</v>
       </c>
-      <c r="U40" s="42" t="s">
+      <c r="U40" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="V40" s="39"/>
+      <c r="V40" s="38"/>
       <c r="W40" s="1"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1"/>
-      <c r="B41" s="43" t="s">
+      <c r="B41" s="13" t="s">
         <v>542</v>
       </c>
-      <c r="C41" s="45" t="s">
+      <c r="C41" s="43" t="s">
         <v>543</v>
       </c>
-      <c r="D41" s="46" t="s">
+      <c r="D41" s="44" t="s">
         <v>544</v>
       </c>
-      <c r="E41" s="48" t="s">
+      <c r="E41" s="46" t="s">
         <v>545</v>
       </c>
-      <c r="F41" s="48" t="s">
+      <c r="F41" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="G41" s="48" t="s">
+      <c r="G41" s="46" t="s">
         <v>546</v>
       </c>
-      <c r="H41" s="42" t="s">
+      <c r="H41" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="I41" s="47"/>
+      <c r="I41" s="45"/>
       <c r="J41" s="36"/>
       <c r="K41" s="36"/>
       <c r="L41" s="36"/>
       <c r="M41" s="36"/>
       <c r="N41" s="36"/>
       <c r="O41" s="36"/>
-      <c r="P41" s="43" t="s">
+      <c r="P41" s="13" t="s">
         <v>547</v>
       </c>
-      <c r="Q41" s="45" t="s">
+      <c r="Q41" s="43" t="s">
         <v>548</v>
       </c>
-      <c r="R41" s="46" t="s">
+      <c r="R41" s="44" t="s">
         <v>549</v>
       </c>
-      <c r="S41" s="48" t="s">
+      <c r="S41" s="46" t="s">
         <v>258</v>
       </c>
-      <c r="T41" s="48" t="s">
+      <c r="T41" s="46" t="s">
         <v>550</v>
       </c>
-      <c r="U41" s="48" t="s">
+      <c r="U41" s="46" t="s">
         <v>551</v>
       </c>
-      <c r="V41" s="42" t="s">
+      <c r="V41" s="41" t="s">
         <v>9</v>
       </c>
       <c r="W41" s="1"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1"/>
-      <c r="B42" s="49" t="s">
+      <c r="B42" s="47" t="s">
         <v>552</v>
       </c>
-      <c r="C42" s="50" t="s">
+      <c r="C42" s="48" t="s">
         <v>553</v>
       </c>
-      <c r="D42" s="51" t="s">
+      <c r="D42" s="49" t="s">
         <v>554</v>
       </c>
-      <c r="E42" s="52" t="s">
+      <c r="E42" s="50" t="s">
         <v>227</v>
       </c>
-      <c r="F42" s="47" t="s">
+      <c r="F42" s="45" t="s">
         <v>555</v>
       </c>
-      <c r="G42" s="52" t="s">
+      <c r="G42" s="50" t="s">
         <v>197</v>
       </c>
-      <c r="H42" s="53" t="s">
+      <c r="H42" s="51" t="s">
         <v>556</v>
       </c>
-      <c r="I42" s="47"/>
+      <c r="I42" s="45"/>
       <c r="J42" s="36"/>
       <c r="K42" s="36"/>
       <c r="L42" s="36"/>
       <c r="M42" s="36"/>
       <c r="N42" s="36"/>
       <c r="O42" s="36"/>
-      <c r="P42" s="49" t="s">
+      <c r="P42" s="47" t="s">
         <v>557</v>
       </c>
-      <c r="Q42" s="50" t="s">
+      <c r="Q42" s="48" t="s">
         <v>558</v>
       </c>
-      <c r="R42" s="51" t="s">
+      <c r="R42" s="49" t="s">
         <v>559</v>
       </c>
-      <c r="S42" s="52" t="s">
+      <c r="S42" s="50" t="s">
         <v>560</v>
       </c>
-      <c r="T42" s="47" t="s">
+      <c r="T42" s="45" t="s">
         <v>561</v>
       </c>
-      <c r="U42" s="52" t="s">
+      <c r="U42" s="50" t="s">
         <v>562</v>
       </c>
-      <c r="V42" s="53" t="s">
+      <c r="V42" s="51" t="s">
         <v>563</v>
       </c>
       <c r="W42" s="1"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1"/>
-      <c r="B43" s="54" t="s">
+      <c r="B43" s="33" t="s">
         <v>506</v>
       </c>
-      <c r="C43" s="55" t="s">
+      <c r="C43" s="52" t="s">
         <v>507</v>
       </c>
-      <c r="D43" s="55" t="s">
+      <c r="D43" s="52" t="s">
         <v>508</v>
       </c>
-      <c r="E43" s="55" t="s">
+      <c r="E43" s="52" t="s">
         <v>509</v>
       </c>
-      <c r="F43" s="55" t="s">
+      <c r="F43" s="52" t="s">
         <v>510</v>
       </c>
-      <c r="G43" s="55" t="s">
+      <c r="G43" s="52" t="s">
         <v>511</v>
       </c>
-      <c r="H43" s="56" t="s">
+      <c r="H43" s="53" t="s">
         <v>512</v>
       </c>
       <c r="I43" s="36"/>
@@ -5069,25 +5064,25 @@
       <c r="M43" s="36"/>
       <c r="N43" s="36"/>
       <c r="O43" s="36"/>
-      <c r="P43" s="54" t="s">
+      <c r="P43" s="33" t="s">
         <v>506</v>
       </c>
-      <c r="Q43" s="55" t="s">
+      <c r="Q43" s="52" t="s">
         <v>507</v>
       </c>
-      <c r="R43" s="55" t="s">
+      <c r="R43" s="52" t="s">
         <v>508</v>
       </c>
-      <c r="S43" s="55" t="s">
+      <c r="S43" s="52" t="s">
         <v>509</v>
       </c>
-      <c r="T43" s="55" t="s">
+      <c r="T43" s="52" t="s">
         <v>510</v>
       </c>
-      <c r="U43" s="55" t="s">
+      <c r="U43" s="52" t="s">
         <v>511</v>
       </c>
-      <c r="V43" s="56" t="s">
+      <c r="V43" s="53" t="s">
         <v>512</v>
       </c>
       <c r="W43" s="1"/>
